--- a/ARTIQ_EE/Sayma_AMC.xlsx
+++ b/ARTIQ_EE/Sayma_AMC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Sayma_AMC" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="642">
   <si>
     <t>#</t>
   </si>
@@ -53,33 +53,6 @@
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>FIDUCIAL_TARGET_C100-200</t>
-  </si>
-  <si>
-    <t>Round Fiducial Target, Top Layer, 1.0mm, Top Solder 2.0mm, Keepout =2.0mm</t>
-  </si>
-  <si>
-    <t>FIDUCIAL_TOP_C100-200</t>
-  </si>
-  <si>
-    <t>FIDUCIAL_TARGET_S100-200</t>
-  </si>
-  <si>
-    <t>Square Fiducial Target, Top Layer, 1.0mm, Top Solder 2.0mm, Keepout =2.0mm</t>
-  </si>
-  <si>
-    <t>FIDUCIAL_TOP_S100-200</t>
-  </si>
-  <si>
-    <t>FIDUCIAL_TARGET_S200-400</t>
-  </si>
-  <si>
-    <t>Square Fiducial Target, Top Layer, 2.0mm, Top Solder 4.0mm, Keepout =4.0mm</t>
-  </si>
-  <si>
-    <t>FIDUCIAL_TOP_S200-400</t>
-  </si>
-  <si>
     <t>PLATED_HOLE2.7_PAD5.0</t>
   </si>
   <si>
@@ -92,15 +65,6 @@
     <t>MTG270_500</t>
   </si>
   <si>
-    <t>PLATED_HOLE2.0_PAD3.5</t>
-  </si>
-  <si>
-    <t>B5-B8</t>
-  </si>
-  <si>
-    <t>c350h200</t>
-  </si>
-  <si>
     <t>Capacitor - non polarized CAPC0603X33N</t>
   </si>
   <si>
@@ -110,7 +74,7 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C1-C194,C216-C253,C255-C284</t>
+    <t>C1-C194,C216-C245,C253,C255-C258,C271-C285,C566-C582,C584,C586,C589,C590,C593,C594,C597,C598,C601,C602,C605-C611,C614-C617,C625-C659,C662-C671,C676-C682,C685-C707</t>
   </si>
   <si>
     <t>CAPC0603X33N</t>
@@ -140,6 +104,42 @@
     <t>CC0201_220NF_6.3V_20%_X5R</t>
   </si>
   <si>
+    <t>Capacitor - non polarized CAPC1005X55N</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>C247,C248,C299,C300</t>
+  </si>
+  <si>
+    <t>CAPC1005X55N</t>
+  </si>
+  <si>
+    <t>CC0402_22PF_50V_5%_C0G</t>
+  </si>
+  <si>
+    <t>Capacitor - non polarized CAPC3216X180N</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>C249,C250,C259-C263,C440-C477</t>
+  </si>
+  <si>
+    <t>CAPC3216X180N</t>
+  </si>
+  <si>
+    <t>CC1206_100UF_6.3V_20%_X5R</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>C251,C252</t>
+  </si>
+  <si>
     <t>1nF</t>
   </si>
   <si>
@@ -149,13 +149,52 @@
     <t>CC0201_1NF_16V_10%_X5R</t>
   </si>
   <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C264-C267,C434,C438,C439,C494</t>
+  </si>
+  <si>
+    <t>CC1206_10uF_25V_10%_X7R</t>
+  </si>
+  <si>
+    <t>Capacitor - polarized CAPMP3216X180N</t>
+  </si>
+  <si>
+    <t>Low ESR 0R9 Solid Tantalum Chip Capacitor</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C268,C297</t>
+  </si>
+  <si>
+    <t>CAPMP3216X180N</t>
+  </si>
+  <si>
+    <t>CTE3216-18_22UF_6.3V_10%_LESR0900</t>
+  </si>
+  <si>
+    <t>Capacitor - non polarized CAPC1608X90N</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>C269,C270,C512</t>
+  </si>
+  <si>
+    <t>CAPC1608X90N</t>
+  </si>
+  <si>
+    <t>CC0603_4.7UF_25V_10%_X5R</t>
+  </si>
+  <si>
     <t>Capacitor - non polarized CAPC1608X87N</t>
   </si>
   <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C285-C292</t>
+    <t>C286-C292</t>
   </si>
   <si>
     <t>CAPC1608X87N</t>
@@ -182,22 +221,7 @@
     <t>CC0603_1UF_25V_10%_X7R</t>
   </si>
   <si>
-    <t>Capacitor - non polarized CAPC1005X55N</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>C299,C300,C432,C433</t>
-  </si>
-  <si>
-    <t>CAPC1005X55N</t>
-  </si>
-  <si>
-    <t>CC0402_22PF_50V_5%_C0G</t>
-  </si>
-  <si>
-    <t>C301-C307,C403,C404,C413-C424,C426,C427</t>
+    <t>C301-C304,C306,C403,C404,C413,C415-C424,C426,C427,C672,C673</t>
   </si>
   <si>
     <t>CC0402_100NF_16V_10%_X5R</t>
@@ -215,28 +239,25 @@
     <t>10nF</t>
   </si>
   <si>
-    <t>C308,C310,C324,C336,C431</t>
+    <t>C246,C310,C324</t>
   </si>
   <si>
     <t>CC0402_10NF_16V_10%_X7R</t>
   </si>
   <si>
-    <t>C297,C298,C311-C322,C325-C335,C337-C345,C402,C406-C408,C410-C412</t>
+    <t>C298,C311-C317,C319-C322,C325-C335,C337-C345,C402,C406-C408,C410-C412,C618</t>
   </si>
   <si>
     <t>CC0402_1UF_16V_10%_X5R</t>
   </si>
   <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
     <t>C346-C401</t>
   </si>
   <si>
     <t>CC0402_4.7UF_6.3V_20%_X5R</t>
   </si>
   <si>
-    <t>C405,C409,C428-C430</t>
+    <t>C405,C409,C428-C430,C683,C684</t>
   </si>
   <si>
     <t>CC0402_1NF_50V_10%_X7R</t>
@@ -251,27 +272,6 @@
     <t>CC0402_2.2NF_50V_10%_X7R</t>
   </si>
   <si>
-    <t>Capacitor - non polarized CAPC3216X180N</t>
-  </si>
-  <si>
-    <t>C434-C439,C480-C494</t>
-  </si>
-  <si>
-    <t>CAPC3216X180N</t>
-  </si>
-  <si>
-    <t>CC1206_10uF_25V_10%_X7R</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>C440-C477</t>
-  </si>
-  <si>
-    <t>CC1206_100UF_6.3V_20%_X5R</t>
-  </si>
-  <si>
     <t>47uF</t>
   </si>
   <si>
@@ -287,10 +287,7 @@
     <t>Capacitor - non polarized CAPC2012X135N</t>
   </si>
   <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C495-C502</t>
+    <t>C495-C502,C674</t>
   </si>
   <si>
     <t>CAPC2012X135N</t>
@@ -332,22 +329,10 @@
     <t>CC1210_47UF_6.3V_10%_X5R</t>
   </si>
   <si>
-    <t>Capacitor - non polarized CAPC1608X90N</t>
-  </si>
-  <si>
-    <t>C512</t>
-  </si>
-  <si>
-    <t>CAPC1608X90N</t>
-  </si>
-  <si>
-    <t>CC0603_4.7UF_25V_10%_X5R</t>
-  </si>
-  <si>
     <t>Capacitor - non polarized CAPC1709X95N</t>
   </si>
   <si>
-    <t>C513-C526</t>
+    <t>C513-C526,C675</t>
   </si>
   <si>
     <t>CAPC1709X95N</t>
@@ -368,40 +353,55 @@
     <t>CC0805_47UF_6.3V_20%_X5R</t>
   </si>
   <si>
-    <t>Capacitor - non polarized CAPC3216X140N</t>
-  </si>
-  <si>
-    <t>C538-C565</t>
-  </si>
-  <si>
-    <t>CAPC3216X140N</t>
-  </si>
-  <si>
-    <t>CC1206_22UF_10V_+80%-20%_Y5V</t>
-  </si>
-  <si>
     <t>TYCO_6367034-1</t>
   </si>
   <si>
+    <t>Cage bottom For Single Port SFP  (Small Form-factor Pluggable)</t>
+  </si>
+  <si>
     <t>Cage1,Cage2</t>
   </si>
   <si>
+    <t>6367034-1</t>
+  </si>
+  <si>
+    <t>TYCO ELECTRONICS</t>
+  </si>
+  <si>
+    <t>TYCO_6367035-1</t>
+  </si>
+  <si>
+    <t>Cage Top For Single Port SFP  (Small Form-factor Pluggable)</t>
+  </si>
+  <si>
+    <t>Cage3,Cage4</t>
+  </si>
+  <si>
+    <t>6367035-1</t>
+  </si>
+  <si>
     <t>PRTR5V0U2X</t>
   </si>
   <si>
+    <t>Ultra Low Capacitance (1pF) Double Rail-to-Rail ESD Protection Diode (8kV)</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
     <t>SOT190P230X110-4N</t>
   </si>
   <si>
+    <t>NXP SEMICONDUCTORS</t>
+  </si>
+  <si>
     <t>BAT165</t>
   </si>
   <si>
     <t>Medium Power AF Schottky Diode</t>
   </si>
   <si>
-    <t>D2-D10</t>
+    <t>D2,D7-D10,D27</t>
   </si>
   <si>
     <t>SOD2512X110N</t>
@@ -416,15 +416,12 @@
     <t>ESD protection diode (23kV)</t>
   </si>
   <si>
-    <t>D11-D23</t>
+    <t>D11-D23,D25,D26,D28,D29</t>
   </si>
   <si>
     <t>SODFL1608X65N</t>
   </si>
   <si>
-    <t>NXP SEMICONDUCTORS</t>
-  </si>
-  <si>
     <t>SS16</t>
   </si>
   <si>
@@ -449,7 +446,7 @@
     <t>100mA-15V</t>
   </si>
   <si>
-    <t>F1-F3</t>
+    <t>F1,F2</t>
   </si>
   <si>
     <t>FUSR_LITTELFUSE_0805L010</t>
@@ -461,6 +458,24 @@
     <t>LITTELFUSE</t>
   </si>
   <si>
+    <t>HSINK_AAVID_342947</t>
+  </si>
+  <si>
+    <t>COPPER HEATSINK 57.9X59X11MM</t>
+  </si>
+  <si>
+    <t>1.9K/W</t>
+  </si>
+  <si>
+    <t>HS1</t>
+  </si>
+  <si>
+    <t>HS_AAVID_342947</t>
+  </si>
+  <si>
+    <t>Aavid Thermalloy</t>
+  </si>
+  <si>
     <t>FT4232H-56Q</t>
   </si>
   <si>
@@ -506,40 +521,310 @@
     <t>NATIONAL SEMICONDUCTOR</t>
   </si>
   <si>
+    <t>TCA9517DGKR</t>
+  </si>
+  <si>
+    <t>Level-Translating I2C Bus Repeater</t>
+  </si>
+  <si>
+    <t>IC4,IC5</t>
+  </si>
+  <si>
+    <t>SOP65P490X110-8N</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS</t>
+  </si>
+  <si>
     <t>TPS3808G33DBVT</t>
   </si>
   <si>
     <t>3.3V, Low Quiescent Current, Programmable-Delay Supervisory Circuit</t>
   </si>
   <si>
-    <t>IC4-IC6</t>
+    <t>IC6</t>
   </si>
   <si>
     <t>SOT95P280X145-6N</t>
   </si>
   <si>
-    <t>TEXAS INSTRUMENTS</t>
-  </si>
-  <si>
-    <t>LD1117DT33CTR</t>
-  </si>
-  <si>
-    <t>3.3V 800mA Low drop fixed and adjustable positive voltage regulators</t>
+    <t>LT3045EDD#PBF</t>
+  </si>
+  <si>
+    <t>20V , 500mA, Ultralow Noise,  Ultrahigh PSRR Linear Regulator</t>
   </si>
   <si>
     <t>IC7</t>
   </si>
   <si>
-    <t>TO228P972X240-3N-R540X510</t>
+    <t>SON50P300X300X80-11N-R175X248</t>
+  </si>
+  <si>
+    <t>LM75AIMM/NOPB</t>
+  </si>
+  <si>
+    <t>-25° to +100°C ±2°C Digital Temperature Sensor and Thermal Watchdog with Two-Wire Interface</t>
+  </si>
+  <si>
+    <t>IC8,IC34-IC36</t>
+  </si>
+  <si>
+    <t>SOP65P490X109-8N</t>
+  </si>
+  <si>
+    <t>TCA9548ARGER</t>
+  </si>
+  <si>
+    <t>Low Voltage 8-Channel I2C Switch With Reset</t>
+  </si>
+  <si>
+    <t>IC9,IC52</t>
+  </si>
+  <si>
+    <t>QFN50P400X400X100-25N-S220</t>
+  </si>
+  <si>
+    <t>SN65MLVD040RGZT</t>
+  </si>
+  <si>
+    <t>IC10,IC11</t>
+  </si>
+  <si>
+    <t>QFN50P700X700X100-49N-S420</t>
+  </si>
+  <si>
+    <t>SN74LVC244ADBRG4</t>
+  </si>
+  <si>
+    <t>Octal Buffer/Driver with 3-State Outputs</t>
+  </si>
+  <si>
+    <t>IC12,IC13</t>
+  </si>
+  <si>
+    <t>SOP65P780X200-20N</t>
+  </si>
+  <si>
+    <t>SN74CB3T3257PW</t>
+  </si>
+  <si>
+    <t>4-Bit 1-of-2 FET Multiplexer/Demultiplexer 2.5V/3.3V Low-Voltage Bus Switch 5V Tolerant Shifter</t>
+  </si>
+  <si>
+    <t>IC14</t>
+  </si>
+  <si>
+    <t>SOP65P640X120-16N</t>
+  </si>
+  <si>
+    <t>MT41J256M16HA-125:E</t>
+  </si>
+  <si>
+    <t>+1.5V, 2Gb (32 Meg x 16 x 8 Banks) DDR3 SDRAM</t>
+  </si>
+  <si>
+    <t>IC16,IC17,IC44-IC47</t>
+  </si>
+  <si>
+    <t>BGA96C80P9X16_900X1400X120</t>
+  </si>
+  <si>
+    <t>Micron</t>
+  </si>
+  <si>
+    <t>TPS51200DRCT</t>
+  </si>
+  <si>
+    <t>,3.3V Sink/Source DDR Termination Regulator</t>
+  </si>
+  <si>
+    <t>IC18,IC19</t>
+  </si>
+  <si>
+    <t>TEXAS_DRC (S-PVSON-N10)</t>
+  </si>
+  <si>
+    <t>MAX24287ETK+</t>
+  </si>
+  <si>
+    <t>1Gbps Parallel-to-Serial MII Converter</t>
+  </si>
+  <si>
+    <t>IC20</t>
+  </si>
+  <si>
+    <t>QFN40P800X800X80-69N-S635</t>
+  </si>
+  <si>
+    <t>MAXIM</t>
+  </si>
+  <si>
+    <t>SN74CB3Q32245ZKE</t>
+  </si>
+  <si>
+    <t>32-Bit Bus Switch, 2.5/3.3V High Bandwidth</t>
+  </si>
+  <si>
+    <t>IC21</t>
+  </si>
+  <si>
+    <t>BGA96C80P6X16_550X1350X140</t>
+  </si>
+  <si>
+    <t>MCP1824ST-1202E/DB</t>
+  </si>
+  <si>
+    <t>1.2V 300mA, Low Voltage, Low Quiescent Current LDO Regulator</t>
+  </si>
+  <si>
+    <t>IC22</t>
+  </si>
+  <si>
+    <t>SOT230P700X180-4N</t>
+  </si>
+  <si>
+    <t>MICROCHIP TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>N25Q256A13ESF40</t>
+  </si>
+  <si>
+    <t>256Mb, 2.7 to 3.6V, Multiple I/O Serial Flash Memory</t>
+  </si>
+  <si>
+    <t>IC23,IC24,IC53</t>
+  </si>
+  <si>
+    <t>SOIC127P1032X265-16N</t>
+  </si>
+  <si>
+    <t>MICRON TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>XCKU040-1FFVA1156C</t>
+  </si>
+  <si>
+    <t>Kintex UltraScale FPGA, 520 I/O, 530K Cells, 1156-Ball BGA, Speed Grade 1, Commercial Grade</t>
+  </si>
+  <si>
+    <t>IC25</t>
+  </si>
+  <si>
+    <t>BGA1156C100P34X34_3500X3500X350</t>
+  </si>
+  <si>
+    <t>XILINX</t>
+  </si>
+  <si>
+    <t>Si5324C-C-GM</t>
+  </si>
+  <si>
+    <t>Any Frequency Precision Clock Multiplier/Jitter Attenuator</t>
+  </si>
+  <si>
+    <t>IC26</t>
+  </si>
+  <si>
+    <t>QFN50P600X600X90-37N-S425</t>
+  </si>
+  <si>
+    <t>SILICON LABS</t>
+  </si>
+  <si>
+    <t>INA219BIDCNT</t>
+  </si>
+  <si>
+    <t>Zero-Drift, Bi-Directional CURRENT/POWER MONITOR with I2C™ Interface</t>
+  </si>
+  <si>
+    <t>IC27,IC28</t>
+  </si>
+  <si>
+    <t>SOT65P280X145-8N</t>
+  </si>
+  <si>
+    <t>TPS62175DQC</t>
+  </si>
+  <si>
+    <t>4.75-28VDC to 1-6VDC, 500mA Step-Down Converter With Sleep Mode</t>
+  </si>
+  <si>
+    <t>IC29,IC41</t>
+  </si>
+  <si>
+    <t>SON50P200X300X80-11N-R94X250</t>
+  </si>
+  <si>
+    <t>TPS74401RGWT</t>
+  </si>
+  <si>
+    <t>Single Output LDO, 3.0A, Adj.(0.8 to 3.3V), Fast Transient Response, Programmable SoftStart</t>
+  </si>
+  <si>
+    <t>IC30,IC31</t>
+  </si>
+  <si>
+    <t>QFN65P500X500X100-21N-S325</t>
+  </si>
+  <si>
+    <t>74HC4066PW</t>
+  </si>
+  <si>
+    <t>Quad Single-Pole Single-Throw Analog Switch</t>
+  </si>
+  <si>
+    <t>IC32,IC42</t>
+  </si>
+  <si>
+    <t>SOP65P640X110-14N</t>
+  </si>
+  <si>
+    <t>TPS53353DQPT</t>
+  </si>
+  <si>
+    <t>Conv DC-DC 4.5V to 25V Step Down Single-Out 0.6V to 5.5V 20A</t>
+  </si>
+  <si>
+    <t>IC33</t>
+  </si>
+  <si>
+    <t>LCCS50P600X500X150-22N</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>MAX6642ATT90+T</t>
+  </si>
+  <si>
+    <t>0°C to +125°C, ±1°C, SMBus-Compatible Remote/Local Temperature Sensor with Overtemperature Alarm (Address 1001 000)</t>
+  </si>
+  <si>
+    <t>IC37</t>
+  </si>
+  <si>
+    <t>SON95P300X300X80-7N-R160X240</t>
+  </si>
+  <si>
+    <t>LPC1776FET180,551</t>
+  </si>
+  <si>
+    <t>Cortex-M3, 32-bit ARM MCU, 256kB Flash, 80kB SRAM, Ethernet, USB 2.0 Device/Host/OTG, CAN, 12-Bit ADC</t>
+  </si>
+  <si>
+    <t>IC38</t>
+  </si>
+  <si>
+    <t>BGA180C80P14X14_1200X1200X120</t>
   </si>
   <si>
     <t>AT24MAC402-XHM</t>
   </si>
   <si>
-    <t>1.7V to 5.5V, 2K (256 x 8) I2C-Compatible (2-wire) 2-Kbit Serial EEPROM</t>
-  </si>
-  <si>
-    <t>IC8</t>
+    <t>1.7V to 5.5V, I2C-Compatible (2-wire) 2-Kbit (256 x 8) Serial EEPROM with a EUI-48 Address</t>
+  </si>
+  <si>
+    <t>IC39</t>
   </si>
   <si>
     <t>SOP65X640X120-8N</t>
@@ -548,175 +833,40 @@
     <t>ATMEL</t>
   </si>
   <si>
-    <t>TCA9548ARGER</t>
-  </si>
-  <si>
-    <t>Low Voltage 8-Channel I2C Switch With Reset</t>
-  </si>
-  <si>
-    <t>IC9</t>
-  </si>
-  <si>
-    <t>QFN50P400X400X100-25N-S220</t>
-  </si>
-  <si>
-    <t>SN65MLVD040RGZT</t>
-  </si>
-  <si>
-    <t>IC10,IC11</t>
-  </si>
-  <si>
-    <t>QFN50P700X700X100-49N-S420</t>
-  </si>
-  <si>
-    <t>MT41J128M16HA-15E</t>
-  </si>
-  <si>
-    <t>IC12-IC17</t>
-  </si>
-  <si>
-    <t>BGA96C80P9X16_900X1400X120</t>
-  </si>
-  <si>
-    <t>TPS51200DRCT</t>
-  </si>
-  <si>
-    <t>IC18,IC19</t>
-  </si>
-  <si>
-    <t>TEXAS_DRC (S-PVSON-N10)</t>
-  </si>
-  <si>
-    <t>MAX24287ETK+</t>
-  </si>
-  <si>
-    <t>1Gbps Parallel-to-Serial MII Converter</t>
-  </si>
-  <si>
-    <t>IC20</t>
-  </si>
-  <si>
-    <t>QFN40P800X800X80-69N-S635</t>
-  </si>
-  <si>
-    <t>MAXIM</t>
-  </si>
-  <si>
-    <t>SN74CB3Q32245ZKE</t>
-  </si>
-  <si>
-    <t>32-Bit Bus Switch, 2.5/3.3V High Bandwidth</t>
-  </si>
-  <si>
-    <t>IC21</t>
-  </si>
-  <si>
-    <t>BGA96C80P6X16_550X1350X140</t>
-  </si>
-  <si>
-    <t>MCP1824ST-1202E/DB</t>
-  </si>
-  <si>
-    <t>1.2V 300mA, Low Voltage, Low Quiescent Current LDO Regulator</t>
-  </si>
-  <si>
-    <t>IC22</t>
-  </si>
-  <si>
-    <t>SOT230P700X180-4N</t>
-  </si>
-  <si>
-    <t>MICROCHIP TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>N25Q256A13ESF40</t>
-  </si>
-  <si>
-    <t>256Mb, 2.7 to 3.6V, Multiple I/O Serial Flash Memory</t>
-  </si>
-  <si>
-    <t>IC23,IC24</t>
-  </si>
-  <si>
-    <t>SOIC127P1032X265-16N</t>
-  </si>
-  <si>
-    <t>MICRON TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>XCKU040-1FFVA1156C</t>
-  </si>
-  <si>
-    <t>Kintex UltraScale FPGA, 520 I/O, 530K Cells, 1156-Ball BGA, Speed Grade 1, Commercial Grade</t>
-  </si>
-  <si>
-    <t>IC25,IC26</t>
-  </si>
-  <si>
-    <t>BGA1156C100P34X34_3500X3500X350</t>
-  </si>
-  <si>
-    <t>XILINX</t>
-  </si>
-  <si>
-    <t>Si5324C-C-GM</t>
-  </si>
-  <si>
-    <t>Any Frequency Precision Clock Multiplier/Jitter Attenuator</t>
-  </si>
-  <si>
-    <t>IC27</t>
-  </si>
-  <si>
-    <t>QFN50P600X600X90-37N-S425</t>
-  </si>
-  <si>
-    <t>SILICON LABS</t>
-  </si>
-  <si>
-    <t>INA219BIDCNT</t>
-  </si>
-  <si>
-    <t>Zero-Drift, Bi-Directional CURRENT/POWER MONITOR with I2C™ Interface</t>
-  </si>
-  <si>
-    <t>IC28,IC29</t>
-  </si>
-  <si>
-    <t>SOT65P280X145-8N</t>
-  </si>
-  <si>
-    <t>TPS62175DQC</t>
-  </si>
-  <si>
-    <t>4.75-28VDC to 1-6VDC, 500mA Step-Down Converter With Sleep Mode</t>
-  </si>
-  <si>
-    <t>IC30</t>
-  </si>
-  <si>
-    <t>SON50P200X300X80-11N-R94X250</t>
-  </si>
-  <si>
-    <t>TPS74401RGWT</t>
-  </si>
-  <si>
-    <t>Single Output LDO, 3.0A, Adj.(0.8 to 3.3V), Fast Transient Response, Programmable SoftStart</t>
-  </si>
-  <si>
-    <t>IC31,IC32</t>
-  </si>
-  <si>
-    <t>QFN65P500X500X100-21N-S325</t>
-  </si>
-  <si>
-    <t>XRP7724ILB-F</t>
+    <t>LTC6957IDD-1#PBF</t>
+  </si>
+  <si>
+    <t>Low Phase Noise, Dual  Output Buffer/Driver/  Logic Converter</t>
+  </si>
+  <si>
+    <t>IC40</t>
+  </si>
+  <si>
+    <t>SON45P300X300X80-7N-R170X240</t>
+  </si>
+  <si>
+    <t>Linear Technology</t>
+  </si>
+  <si>
+    <t>SN74LVT125D</t>
+  </si>
+  <si>
+    <t>3.3V ABT Quadruple Bus Buffer with 3-State Outputs</t>
+  </si>
+  <si>
+    <t>IC43</t>
+  </si>
+  <si>
+    <t>SOIC127P600X175-14N</t>
+  </si>
+  <si>
+    <t>XR77129ELB</t>
   </si>
   <si>
     <t>Quad Channel Digital PWM/PFM Proggrammable Power Management System</t>
   </si>
   <si>
-    <t>IC33</t>
+    <t>IC48</t>
   </si>
   <si>
     <t>QFN50P700X700X80-45N-S520</t>
@@ -725,63 +875,48 @@
     <t>EXAR</t>
   </si>
   <si>
-    <t>TPS53353DQPT</t>
-  </si>
-  <si>
-    <t>Conv DC-DC 4.5V to 25V Step Down Single-Out 0.6V to 5.5V 20A</t>
-  </si>
-  <si>
-    <t>IC34</t>
-  </si>
-  <si>
-    <t>LCCS50P600X500X150-22N</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>LM75AIMM/NOPB</t>
-  </si>
-  <si>
-    <t>-25° to +100°C ±2°C Digital Temperature Sensor and Thermal Watchdog with Two-Wire Interface</t>
-  </si>
-  <si>
-    <t>IC35-IC38</t>
-  </si>
-  <si>
-    <t>SOP65P490X109-8N</t>
-  </si>
-  <si>
-    <t>MAX6642ATT90+T</t>
-  </si>
-  <si>
-    <t>0°C to +125°C, ±1°C, SMBus-Compatible Remote/Local Temperature Sensor with Overtemperature Alarm (Address 1001 000)</t>
-  </si>
-  <si>
-    <t>IC39</t>
-  </si>
-  <si>
-    <t>SON95P300X300X80-7N-R160X240</t>
-  </si>
-  <si>
-    <t>LPC1776FET180,551</t>
-  </si>
-  <si>
-    <t>Cortex-M3, 32-bit ARM MCU, 256kB Flash, 80kB SRAM, Ethernet, USB 2.0 Device/Host/OTG, CAN, 12-Bit ADC</t>
-  </si>
-  <si>
-    <t>IC40</t>
-  </si>
-  <si>
-    <t>BGA180C80P14X14_1200X1200X120</t>
+    <t>TXB0304RUTR</t>
+  </si>
+  <si>
+    <t>4-bit Bidirectional Auto-direction Sensing Translator with Fully Symmetric 0.9V to 3.6V Range</t>
+  </si>
+  <si>
+    <t>IC49,IC50</t>
+  </si>
+  <si>
+    <t>TEXAS_RUT (R-PUQFN-N12)</t>
+  </si>
+  <si>
+    <t>NCP1117DT33G</t>
+  </si>
+  <si>
+    <t>3.3V 1A Low-Dropout Positive Voltage Regulator</t>
+  </si>
+  <si>
+    <t>IC51</t>
+  </si>
+  <si>
+    <t>TO228P991X239-3N-R552X520</t>
+  </si>
+  <si>
+    <t>ON SEMICONDUCTOR</t>
   </si>
   <si>
     <t>HIROSE_ZX62RD-AB-5P8</t>
   </si>
   <si>
+    <t>Micro-USB 2.0 Right Angle, SMD Type AB - Reverse (Top mount), Shell Through Hole</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
+    <t>ZX62RD-AB-5P8</t>
+  </si>
+  <si>
+    <t>HIROSE (HRS)</t>
+  </si>
+  <si>
     <t>AMC_CON_PCB</t>
   </si>
   <si>
@@ -809,880 +944,1000 @@
     <t>MOLEX</t>
   </si>
   <si>
+    <t>MOLEX_39-28-1043</t>
+  </si>
+  <si>
+    <t>4.20mm (.165") Pitch Mini-Fit Jr.™ Header, Dual Row, Vertical, without Snap-in Plastic Peg PCB Lock, 4 Circuits</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>39-28-1043</t>
+  </si>
+  <si>
+    <t>TYCO_6469081-1</t>
+  </si>
+  <si>
+    <t>60 Positions, Pitch 2.5mm,  Advanced TCA, Z-PACK HM-Zd Right Angle Press Fit Receptacle</t>
+  </si>
+  <si>
+    <t>J5,J6</t>
+  </si>
+  <si>
+    <t>6469081-1</t>
+  </si>
+  <si>
+    <t>TYCO_5120913-1</t>
+  </si>
+  <si>
+    <t>Universal Right Angle Female Power Module Guide (keyed)</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>5120913-1</t>
+  </si>
+  <si>
+    <t>TYCO_1367073-1</t>
+  </si>
+  <si>
+    <t>20 Position, Pitch 0.8mm SFP Receptacle (Small Form-factor Pluggable)</t>
+  </si>
+  <si>
+    <t>J8,J9</t>
+  </si>
+  <si>
+    <t>1367073-1</t>
+  </si>
+  <si>
+    <t>CON_SATA_67800-5005</t>
+  </si>
+  <si>
+    <t>High Performance Cable Connectors 7Ckt Vert Signal Hdr SMT w/ locking latch</t>
+  </si>
+  <si>
+    <t>J10-J12</t>
+  </si>
+  <si>
+    <t>67800-5005</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>SAMTEC_MTLW-106-07-L-D-250</t>
+  </si>
+  <si>
+    <t>12 Contacts - Pitch 2.54mm - Dual Row Through Mount Straight Header (Post Lead = 6.35mm, Tail Lead 3.05mm, Insulator 1.52mm)</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>MTLW-106-07-L-D-250</t>
+  </si>
+  <si>
+    <t>SAMTEC</t>
+  </si>
+  <si>
+    <t>SAMTEC_FTS-105-02-F-DV</t>
+  </si>
+  <si>
+    <t>10 Contacts - Pitch 1.27mm - Dual Row Surface Mount Straight Strip Header</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>FTS-105-02-F-DV</t>
+  </si>
+  <si>
+    <t>AMPHENOL_132203</t>
+  </si>
+  <si>
+    <t>50 Ohm Through Hole SMA Right Angle PCB Jack</t>
+  </si>
+  <si>
+    <t>J15,J26,J27</t>
+  </si>
+  <si>
+    <t>AMPHENOL</t>
+  </si>
+  <si>
+    <t>HIROSE_U.FL-R-SMT-1(10)</t>
+  </si>
+  <si>
+    <t>Up to 6GHz Ultra Small Surface Mount Male Coaxial Connectors U.FL Series</t>
+  </si>
+  <si>
+    <t>J16-J25</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(10)</t>
+  </si>
+  <si>
+    <t>IND0603_MURATA_BLM18SG121TN1D</t>
+  </si>
+  <si>
+    <t>120R@100MHz</t>
+  </si>
+  <si>
+    <t>L1-L7</t>
+  </si>
+  <si>
+    <t>INDC1608X65N</t>
+  </si>
+  <si>
+    <t>IND0402_MURATA_BLM15PX121SN1D</t>
+  </si>
+  <si>
+    <t>SMD EMIFIL Chip Ferrite Bead</t>
+  </si>
+  <si>
+    <t>L8-L16,L35,L36</t>
+  </si>
+  <si>
+    <t>INDC1005X55N</t>
+  </si>
+  <si>
+    <t>BLM15PX121SN1D</t>
+  </si>
+  <si>
+    <t>MURATA</t>
+  </si>
+  <si>
+    <t>IND0603_MURATA_BLM18PG121SN1D</t>
+  </si>
+  <si>
+    <t>L17,L33,L34,L38-L40,L45</t>
+  </si>
+  <si>
+    <t>INDC1608X95N</t>
+  </si>
+  <si>
+    <t>BLM18PG121SN1D</t>
+  </si>
+  <si>
+    <t>IND1806_MURATA_BLM41PG600SN1L</t>
+  </si>
+  <si>
+    <t>SMD EMI Suppression Chip Ferrite Bead (BLM41P Serie)</t>
+  </si>
+  <si>
+    <t>60R@100MHz</t>
+  </si>
+  <si>
+    <t>L18-L22</t>
+  </si>
+  <si>
+    <t>INDC4516X180N</t>
+  </si>
+  <si>
+    <t>BLM41PG600SN1L</t>
+  </si>
+  <si>
+    <t>IND0603_MURATA_BLM18PG330SN1D</t>
+  </si>
+  <si>
+    <t>33R@100MHz</t>
+  </si>
+  <si>
+    <t>L23,L24</t>
+  </si>
+  <si>
+    <t>BLM18PG330SN1D</t>
+  </si>
+  <si>
+    <t>IND_10UH_10%_MURATA-PS_8400</t>
+  </si>
+  <si>
+    <t>Miniature Surface Mount Power Inductor (8400 Serie)</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>L30,L37</t>
+  </si>
+  <si>
+    <t>IND_MURATA-PS_8400</t>
+  </si>
+  <si>
+    <t>84103C</t>
+  </si>
+  <si>
+    <t>MURATA POWER SOLUTIONS</t>
+  </si>
+  <si>
+    <t>IND0805_WURTH_742792040</t>
+  </si>
+  <si>
+    <t>SMD EMI Suppression Chip Ferrite Bead (WE-CBF Serie)</t>
+  </si>
+  <si>
+    <t>600R@100MHz</t>
+  </si>
+  <si>
+    <t>L31</t>
+  </si>
+  <si>
+    <t>INDC2012X110N</t>
+  </si>
+  <si>
+    <t>WURTH ELEKTRONIK</t>
+  </si>
+  <si>
+    <t>IND_2.2UH_20%_BOURNS_SRP6540</t>
+  </si>
+  <si>
+    <t>Shielded SMD Power Inductor</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>L41-L43</t>
+  </si>
+  <si>
+    <t>IND_BOURNS_SRP6540</t>
+  </si>
+  <si>
+    <t>SRP6540-2R2M</t>
+  </si>
+  <si>
+    <t>BOURNS</t>
+  </si>
+  <si>
+    <t>IND_1.8UH_20%_COILCRAFT_XAL7070</t>
+  </si>
+  <si>
+    <t>SMD Shielded Power Inductor</t>
+  </si>
+  <si>
+    <t>1.8uH</t>
+  </si>
+  <si>
+    <t>L44</t>
+  </si>
+  <si>
+    <t>IND_COILCRAFT_XAL7070</t>
+  </si>
+  <si>
+    <t>XAL7070-182MEC</t>
+  </si>
+  <si>
+    <t>COILCRAFT</t>
+  </si>
+  <si>
+    <t>LED_OSRAM_LG L29K-G2J1-24-Z</t>
+  </si>
+  <si>
+    <t>Surface Mount Green LED (0603 Case)</t>
+  </si>
+  <si>
+    <t>LD1,LD7-LD11,LD17</t>
+  </si>
+  <si>
+    <t>LED_OSRAM_LGL29K</t>
+  </si>
+  <si>
+    <t>LG L29K-G2J1-24-Z</t>
+  </si>
+  <si>
+    <t>OSRAM</t>
+  </si>
+  <si>
+    <t>LED_AVAGO_HSMC-C120</t>
+  </si>
+  <si>
+    <t>High Performance Right Angle Chip Red LED</t>
+  </si>
+  <si>
+    <t>LD2,LD3</t>
+  </si>
+  <si>
+    <t>HSMC-C120</t>
+  </si>
+  <si>
+    <t>AVAGO TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>LED_AVAGO_HSMR-C120</t>
+  </si>
+  <si>
+    <t>High Performance Right Angle Chip InGaN Blue LED</t>
+  </si>
+  <si>
+    <t>LD4</t>
+  </si>
+  <si>
+    <t>HSMR-C120</t>
+  </si>
+  <si>
+    <t>LED_AVAGO_HSME-C120</t>
+  </si>
+  <si>
+    <t>High Performance Right Angle Chip Green LED</t>
+  </si>
+  <si>
+    <t>LD5,LD6,LD12,LD18-LD21</t>
+  </si>
+  <si>
+    <t>HSME-C120</t>
+  </si>
+  <si>
+    <t>OSC_25MHZ_IQD_LF SPXO018077</t>
+  </si>
+  <si>
+    <t>3.3V, ±50ppm, 50pF, 0..70°C, HCMOS Tri-State Surface Mount Clock Oscillator (CFPS-73 Series)</t>
+  </si>
+  <si>
+    <t>25MHz</t>
+  </si>
+  <si>
+    <t>OSC1</t>
+  </si>
+  <si>
+    <t>OSC_IQD_CFPS-73</t>
+  </si>
+  <si>
+    <t>LFSPXO018077</t>
+  </si>
+  <si>
+    <t>IQD FREQUENCY PRODUCTS</t>
+  </si>
+  <si>
+    <t>OSC_50MHZ_CTS_636L3I050M00000</t>
+  </si>
+  <si>
+    <t>3.3V, ±50ppm, 30pF, -40..85°C, HCMOS/TTL Clock Oscillator, 636 Series</t>
+  </si>
+  <si>
+    <t>50MHz</t>
+  </si>
+  <si>
+    <t>OSC2</t>
+  </si>
+  <si>
+    <t>OSCSC254P320X500X130-4N</t>
+  </si>
+  <si>
+    <t>636L3I050M00000</t>
+  </si>
+  <si>
+    <t>CTS ELECTRONIC COMPONENTS</t>
+  </si>
+  <si>
+    <t>OSC_200MHZ_SILICON-LAB_510ABA200M000AAG</t>
+  </si>
+  <si>
+    <t>crystal oscillator, 200MHz, 100ppm, 3.3V, LVDS, 5x7mm</t>
+  </si>
+  <si>
+    <t>200MHz</t>
+  </si>
+  <si>
+    <t>OSC3</t>
+  </si>
+  <si>
+    <t>OSC_SILICON-LAB_SI510-6N</t>
+  </si>
+  <si>
+    <t>510ABA200M000AAG</t>
+  </si>
+  <si>
+    <t>Silicon Labs</t>
+  </si>
+  <si>
+    <t>OSC4</t>
+  </si>
+  <si>
+    <t>SW_C&amp;K_HDT0001</t>
+  </si>
+  <si>
+    <t>5VDC 1mA SPST-NO Micro Mini Surface Surface Mount Detect Push-Button Switch, HDT Serie</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>HDT0001</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>PB_ALPS_SKHHLQA010</t>
+  </si>
+  <si>
+    <t>6x6mm, SPST Horizontal Pushbutton Switch, Stem height 8.35mm, Contact Rating 50mA 12VDC, Serie SKHH</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>SKHHLQA010</t>
+  </si>
+  <si>
+    <t>ALPS</t>
+  </si>
+  <si>
+    <t>XTAL_12MHZ_TXC_7M-12.000MAAJ-T</t>
+  </si>
+  <si>
+    <t>±30ppm 18pF -20°C to +70°C  4 Pins, 3.2x2.5X0.8mm, SMD Sealing Crystal, 7M Series</t>
+  </si>
+  <si>
+    <t>12MHz</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>XTAL_TXC_7M</t>
+  </si>
+  <si>
+    <t>7M-12.000MAAJ-T</t>
+  </si>
+  <si>
+    <t>TXC CORPORATION</t>
+  </si>
+  <si>
+    <t>XTAL_114.285MHZ_CONNOR_CS-023</t>
+  </si>
+  <si>
+    <t>±20ppm 18pF -40°C to +85°C  4 Pins, 3.2x2.5X0.8mm, SMD Crystal Unit, CS-018 Series</t>
+  </si>
+  <si>
+    <t>114.285MHZ</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>XTAL_CONNOR_CS</t>
+  </si>
+  <si>
+    <t>CS-023-114.285M</t>
+  </si>
+  <si>
+    <t>CONNOR-WINFIELD</t>
+  </si>
+  <si>
+    <t>XTAL_8MHZ_TXC_7A-8.000MAAE-T</t>
+  </si>
+  <si>
+    <t>Tolerance: ±30ppm, Stability: ±30ppm, -20°C to +70°C, 12pF, SMD Glass Seam Sealing Crystal, 7A Series</t>
+  </si>
+  <si>
+    <t>8MHz</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>XTAL_TXC_7A</t>
+  </si>
+  <si>
+    <t>7A-8.000MAAE-T</t>
+  </si>
+  <si>
+    <t>Resistor - 1% RESC5025X65N</t>
+  </si>
+  <si>
+    <t>Thick Film Chip Resistor</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>R1,R2,R369</t>
+  </si>
+  <si>
+    <t>R2010_1M_1%_0.5W_200PPM</t>
+  </si>
+  <si>
+    <t>Resistor - 1% RESC1005X40N</t>
+  </si>
+  <si>
+    <t>General Purpose Thick Film Chip Resistor</t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R0402_12K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>2k2</t>
+  </si>
+  <si>
+    <t>R5,R9,R40,R47-R56,R217-R219,R274,R275,R500,R505,R506,R526-R530</t>
+  </si>
+  <si>
+    <t>R0402_2K2_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>1A (0.05R Max DC Resistance) Zero Ohm Jumper</t>
+  </si>
+  <si>
+    <t>R12,R13,R17,R18,R20,R21,R26-R31,R36-R39,R57-R59,R151,R152,R167,R176-R180,R222-R226,R228,R236-R239,R253,R255,R257,R317,R318,R328-R332,R341-R344,R350-R353,R376,R393,R395-R401,R455,R486-R489,R496,R503,R504,R517-R519</t>
+  </si>
+  <si>
+    <t>R0402_0R_JUMPER</t>
+  </si>
+  <si>
+    <t>1A (0.05R Max DC Resistance) Zero Ohm Jumper,General Purpose Thick Film Chip Resistor</t>
+  </si>
+  <si>
+    <t>R22,R23,R35,R46,R200-R204,R291-R294,R371-R375,R391,R456,R483,R495,R497,R498</t>
+  </si>
+  <si>
+    <t>R0402_0R_JUMPER,R0402_2K2_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>,General Purpose Thick Film Chip Resistor</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R4,R6-R8,R10,R11,R14-R16,R19,R24,R25,R32-R34,R41-R45,R60,R61,R70,R71,R103,R104,R134-R138,R141-R145,R149,R168-R170,R189,R192,R193,R212-R216,R220,R221,R227,R229-R231,R235,R241,R249-R252,R256,R258,R266,R267,R277-R290,R295,R323-R327,R335,R340,R347-R349,R354-R364,R367,R370,R377-R390,R392,R394,R402,R405-R426,R429-R448,R451-R454,R457-R482,R484,R485,R490-R494,R499,R501,R502,R535,R536,R538</t>
+  </si>
+  <si>
+    <t>RESC1005X40N</t>
+  </si>
+  <si>
+    <t>R0402_10K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>R72,R105</t>
+  </si>
+  <si>
+    <t>R73,R74,R101,R102,R106,R107,R194-R198,R205-R207,R427,R428,R449,R450</t>
+  </si>
+  <si>
+    <t>R0402_240R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>R75-R99,R108-R132,R265,R297</t>
+  </si>
+  <si>
+    <t>4k7</t>
+  </si>
+  <si>
+    <t>R100,R133,R148,R153-R166,R171,R172,R174,R187,R209,R259-R261,R539,R540</t>
+  </si>
+  <si>
+    <t>R0402_4K7_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R139,R140,R146,R147,R183,R185,R232,R240,R339,R403</t>
+  </si>
+  <si>
+    <t>R0402_1K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>R150,R365,R366</t>
+  </si>
+  <si>
+    <t>R0402_2K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>2k4</t>
+  </si>
+  <si>
+    <t>R173,R175</t>
+  </si>
+  <si>
+    <t>R0402_2K4_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>R181,R182,R319-R322</t>
+  </si>
+  <si>
+    <t>R0402_200R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>Reserved Footprint For a 0402 (1005) Chip Resistor</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>R184,R186,R246</t>
+  </si>
+  <si>
+    <t>R0402_NO-VALUE</t>
+  </si>
+  <si>
+    <t>R188,R190,R191,R208,R254,R262-R264,R268-R270,R276,R345,R368,R533,R534,R537</t>
+  </si>
+  <si>
+    <t>R0402_100R_1%_0.1W_100PPM_50V,R0402_100R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>49R9</t>
+  </si>
+  <si>
+    <t>R62-R69,R199,R298,R346</t>
+  </si>
+  <si>
+    <t>R0402_49R9_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>430k</t>
+  </si>
+  <si>
+    <t>R233</t>
+  </si>
+  <si>
+    <t>R0402_430K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>82k</t>
+  </si>
+  <si>
+    <t>R234,R333,R338</t>
+  </si>
+  <si>
+    <t>R0402_82K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>R242</t>
+  </si>
+  <si>
+    <t>R0402_22K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>3k3</t>
+  </si>
+  <si>
+    <t>R243,R244</t>
+  </si>
+  <si>
+    <t>R0402_3K3_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>75k</t>
+  </si>
+  <si>
+    <t>R245</t>
+  </si>
+  <si>
+    <t>R0402_75K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>R247,R248</t>
+  </si>
+  <si>
+    <t>R0402_100K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>R271-R273,R404</t>
+  </si>
+  <si>
+    <t>R0402_330R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>Resistor - 0.1% RESC1608X55N</t>
+  </si>
+  <si>
+    <t>Thin Film Chip Resistor</t>
+  </si>
+  <si>
+    <t>33k2</t>
+  </si>
+  <si>
+    <t>R296,R531,R532</t>
+  </si>
+  <si>
+    <t>R0603_33K2_0.1%_0.063W_10PPM</t>
+  </si>
+  <si>
+    <t>Resistor - 1% RESC3216X65N</t>
+  </si>
+  <si>
+    <t>R299</t>
+  </si>
+  <si>
+    <t>R1206_3R_1%_0.25W_200PPM</t>
+  </si>
+  <si>
+    <t>Resistor - 1% RESC6432X89N</t>
+  </si>
+  <si>
+    <t>Power Metal Strip® Resistor</t>
+  </si>
+  <si>
+    <t>0R02</t>
+  </si>
+  <si>
+    <t>R300,R301</t>
+  </si>
+  <si>
+    <t>WSL2512R0200FEA</t>
+  </si>
+  <si>
+    <t>VISHAY DALE</t>
+  </si>
+  <si>
+    <t>Resistor RESC2012X60N</t>
+  </si>
+  <si>
+    <t>Reserved Footprint For a 0805 (2012) Chip Resistor</t>
+  </si>
+  <si>
+    <t>R302</t>
+  </si>
+  <si>
+    <t>R0805_NO-VALUE</t>
+  </si>
+  <si>
+    <t>Resistor - 0.1% RESC1005X35N</t>
+  </si>
+  <si>
+    <t>Thin Film Precision Resistor</t>
+  </si>
+  <si>
+    <t>R303</t>
+  </si>
+  <si>
+    <t>R0402_100R_0.1%_0.063W_25PPM</t>
+  </si>
+  <si>
+    <t>Resistor - 1% RESC0603X28N</t>
+  </si>
+  <si>
+    <t>R304-R306</t>
+  </si>
+  <si>
+    <t>R0201_100R_1%_0.05W_200PPM</t>
+  </si>
+  <si>
+    <t>Resistor - 1% RESC1608X55N</t>
+  </si>
+  <si>
+    <t>4k99</t>
+  </si>
+  <si>
+    <t>R307,R309</t>
+  </si>
+  <si>
+    <t>R0603_4K99_1%_0.063W_50PPM</t>
+  </si>
+  <si>
+    <t>2k49</t>
+  </si>
+  <si>
+    <t>R308</t>
+  </si>
+  <si>
+    <t>R0603_2K49_1%_0.063W_50PPM</t>
+  </si>
+  <si>
+    <t>R310,R312,R313</t>
+  </si>
+  <si>
+    <t>R0603_2R_1%_0.1W_200PPM</t>
+  </si>
+  <si>
+    <t>169k</t>
+  </si>
+  <si>
+    <t>R311</t>
+  </si>
+  <si>
+    <t>R0603_169K_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>Resistor - 1% RESC5226X80N</t>
+  </si>
+  <si>
+    <t>Low Value Flat Chip Resistor</t>
+  </si>
+  <si>
+    <t>R314</t>
+  </si>
+  <si>
+    <t>LRF2010-R02FW</t>
+  </si>
+  <si>
+    <t>WELWYN COMPONENTS</t>
+  </si>
+  <si>
+    <t>Resistor RESC6331X70N</t>
+  </si>
+  <si>
+    <t>16A (0.005R Max DC Resistance) Zero Ohm Jumper</t>
+  </si>
+  <si>
+    <t>R315,R316</t>
+  </si>
+  <si>
+    <t>R2512_0R_JUMPER</t>
+  </si>
+  <si>
+    <t>270k</t>
+  </si>
+  <si>
+    <t>R334</t>
+  </si>
+  <si>
+    <t>R0402_270K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>R336,R337</t>
+  </si>
+  <si>
+    <t>R0402_47K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>SW_TYCO_1571983-4</t>
+  </si>
+  <si>
+    <t>4 Way SPST SMD DIP Switch, Latched, Contact Rating 0.025A 24VDC</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>1571983-4 or GDH04S04</t>
+  </si>
+  <si>
+    <t>TYCO</t>
+  </si>
+  <si>
+    <t>BSH103</t>
+  </si>
+  <si>
+    <t>30V 850mA N-Channel Enhancement Mode Field-Effect Transistor</t>
+  </si>
+  <si>
+    <t>T1,T23-T26</t>
+  </si>
+  <si>
+    <t>SOT95P230X110-3N</t>
+  </si>
+  <si>
+    <t>SI4425DDY-T1-GE3</t>
+  </si>
+  <si>
+    <t>-30V -19.7A P-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>T2-T4,T14,T15</t>
+  </si>
+  <si>
+    <t>VISHAY SILICONIX</t>
+  </si>
+  <si>
+    <t>BSS138LT1G</t>
+  </si>
+  <si>
+    <t>50V 200mA N-Channel Enhancement Mode Field-Effect Transistor</t>
+  </si>
+  <si>
+    <t>T5-T7,T18-T22</t>
+  </si>
+  <si>
+    <t>SOT95P240X110-3N</t>
+  </si>
+  <si>
+    <t>FDMS7608S</t>
+  </si>
+  <si>
+    <t>30V Dual N-Channel PowerTrench® MOSFET</t>
+  </si>
+  <si>
+    <t>T8-T11</t>
+  </si>
+  <si>
+    <t>FAIRCHILD_FDMS7608S</t>
+  </si>
+  <si>
+    <t>FAIRCHILD SEMICONDUCTOR</t>
+  </si>
+  <si>
+    <t>BC847BV</t>
+  </si>
+  <si>
+    <t>45V 100mA NPN General Purpose Double Transistor</t>
+  </si>
+  <si>
+    <t>T12,T13</t>
+  </si>
+  <si>
+    <t>SOTFL50P160X60-6N</t>
+  </si>
+  <si>
+    <t>BC857BV</t>
+  </si>
+  <si>
+    <t>-45V -100mA PNP General Purpose Double Transistor</t>
+  </si>
+  <si>
+    <t>T16,T17</t>
+  </si>
+  <si>
+    <t>SMD_PAD_1.27X1.27MM</t>
+  </si>
+  <si>
+    <t>,1.27mm x 1.27mm PCB Copper Area (SMD Test Point)</t>
+  </si>
+  <si>
+    <t>TP1-TP8</t>
+  </si>
+  <si>
+    <t>TPS127</t>
+  </si>
+  <si>
     <t>SAMTEC_ASP-134486-01</t>
   </si>
   <si>
     <t>400 contacts (10 rows abcdefghj) Surface Mount Female Connector, VITA 57 (CC-HPC-10)</t>
   </si>
   <si>
-    <t>J4</t>
+    <t>U1</t>
   </si>
   <si>
     <t>ASP-134486-01</t>
   </si>
   <si>
-    <t>SAMTEC</t>
-  </si>
-  <si>
-    <t>MOLEX_39-28-1043</t>
-  </si>
-  <si>
-    <t>4.20mm (.165") Pitch Mini-Fit Jr.™ Header, Dual Row, Vertical, without Snap-in Plastic Peg PCB Lock, 4 Circuits</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>39-28-1043</t>
-  </si>
-  <si>
-    <t>TYCO_6469081-1</t>
-  </si>
-  <si>
-    <t>60 Positions, Pitch 2.5mm,  Advanced TCA, Z-PACK HM-Zd Right Angle Press Fit Receptacle</t>
-  </si>
-  <si>
-    <t>J6,J7</t>
-  </si>
-  <si>
-    <t>6469081-1</t>
-  </si>
-  <si>
-    <t>TYCO ELECTRONICS</t>
-  </si>
-  <si>
-    <t>TYCO_5120913-1</t>
-  </si>
-  <si>
-    <t>Universal Right Angle Female Power Module Guide (keyed)</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>5120913-1</t>
-  </si>
-  <si>
-    <t>TYCO_1367073-1</t>
-  </si>
-  <si>
-    <t>J9,J10</t>
-  </si>
-  <si>
-    <t>CON_SATA_67800-5005</t>
-  </si>
-  <si>
-    <t>High Performance Cable Connectors 7Ckt Vert Signal Hdr SMT w/ locking latch</t>
-  </si>
-  <si>
-    <t>J11-J13</t>
-  </si>
-  <si>
-    <t>67800-5005</t>
-  </si>
-  <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>SAMTEC_MTLW-106-07-L-D-250</t>
-  </si>
-  <si>
-    <t>12 Contacts - Pitch 2.54mm - Dual Row Through Mount Straight Header (Post Lead = 6.35mm, Tail Lead 3.05mm, Insulator 1.52mm)</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>MTLW-106-07-L-D-250</t>
-  </si>
-  <si>
-    <t>SAMTEC_SFM-105-02-S-D-APTR</t>
-  </si>
-  <si>
-    <t>10 Contacts - Pitch 1.27mm - Top Entry, Dual Row Surface Mount Receptacle With Alignment Pin</t>
-  </si>
-  <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>SFM-105-02-S-D-APTR</t>
-  </si>
-  <si>
-    <t>IND0603_MURATA_BLM18SG121TN1D</t>
-  </si>
-  <si>
-    <t>120R@100MHz</t>
-  </si>
-  <si>
-    <t>L1-L7</t>
-  </si>
-  <si>
-    <t>INDC1608X65N</t>
-  </si>
-  <si>
-    <t>IND0402_MURATA_BLM15PX121SN1D</t>
-  </si>
-  <si>
-    <t>SMD EMIFIL Chip Ferrite Bead</t>
-  </si>
-  <si>
-    <t>L8-L16</t>
-  </si>
-  <si>
-    <t>INDC1005X55N</t>
-  </si>
-  <si>
-    <t>BLM15PX121SN1D</t>
-  </si>
-  <si>
-    <t>MURATA</t>
-  </si>
-  <si>
-    <t>IND0603_MURATA_BLM18PG121SN1D</t>
-  </si>
-  <si>
-    <t>L17</t>
-  </si>
-  <si>
-    <t>INDC1608X95N</t>
-  </si>
-  <si>
-    <t>BLM18PG121SN1D</t>
-  </si>
-  <si>
-    <t>IND0603_MURATA_BLM18PG330SN1D</t>
-  </si>
-  <si>
-    <t>33R@100MHz</t>
-  </si>
-  <si>
-    <t>L18-L25</t>
-  </si>
-  <si>
-    <t>BLM18PG330SN1D</t>
-  </si>
-  <si>
-    <t>IND2020_4.7UH_20%_VISHAY_IHLP-2020BZ-11</t>
-  </si>
-  <si>
-    <t>Low Profile, High Current IHLP® Inductor</t>
-  </si>
-  <si>
-    <t>4.7uH</t>
-  </si>
-  <si>
-    <t>L26-L28</t>
-  </si>
-  <si>
-    <t>INDM5552X200N</t>
-  </si>
-  <si>
-    <t>IHLP2020BZER4R7M11</t>
-  </si>
-  <si>
-    <t>VISHAY DALE</t>
-  </si>
-  <si>
-    <t>IND2525_1.5UH_20%_VISHAY_IHLP-2525CZ</t>
-  </si>
-  <si>
-    <t>1.5uH</t>
-  </si>
-  <si>
-    <t>L29,L30</t>
-  </si>
-  <si>
-    <t>INDM6965X300N</t>
-  </si>
-  <si>
-    <t>IHLP2525CZER1R5M01</t>
-  </si>
-  <si>
-    <t>IND_10UH_10%_MURATA-PS_8400</t>
-  </si>
-  <si>
-    <t>Miniature Surface Mount Power Inductor (8400 Serie)</t>
-  </si>
-  <si>
-    <t>10uH</t>
-  </si>
-  <si>
-    <t>L31</t>
-  </si>
-  <si>
-    <t>IND_MURATA-PS_8400</t>
-  </si>
-  <si>
-    <t>84103C</t>
-  </si>
-  <si>
-    <t>MURATA POWER SOLUTIONS</t>
-  </si>
-  <si>
-    <t>IND0805_WURTH_742792040</t>
-  </si>
-  <si>
-    <t>SMD EMI Suppression Chip Ferrite Bead (WE-CBF Serie)</t>
-  </si>
-  <si>
-    <t>600R@100MHz</t>
-  </si>
-  <si>
-    <t>L32</t>
-  </si>
-  <si>
-    <t>INDC2012X110N</t>
-  </si>
-  <si>
-    <t>WURTH ELEKTRONIK</t>
-  </si>
-  <si>
-    <t>IND_PA0513</t>
-  </si>
-  <si>
-    <t>440nH Shielded Inductor 30A 0.32 mOhm</t>
+    <t>IND_440NH_20%_PULSE_PA0513.441NLT</t>
+  </si>
+  <si>
+    <t>SMT Power Inductor</t>
   </si>
   <si>
     <t>440nH</t>
   </si>
   <si>
-    <t>L33</t>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>IND_PULSE_PA0513</t>
   </si>
   <si>
     <t>PA0513.441NLT</t>
   </si>
   <si>
-    <t>Pulse Electronics Corporation</t>
-  </si>
-  <si>
-    <t>IND0402_MURATA_BLM15HB221SN1</t>
-  </si>
-  <si>
-    <t>SMD EMIFIL Suppression Chip Ferrite Bead</t>
-  </si>
-  <si>
-    <t>220R@100MHz</t>
-  </si>
-  <si>
-    <t>L34</t>
-  </si>
-  <si>
-    <t>BLM15HB221SN1</t>
-  </si>
-  <si>
-    <t>LED_OSRAM_LG L29K-G2J1-24-Z</t>
-  </si>
-  <si>
-    <t>Surface Mount Green LED (0603 Case)</t>
-  </si>
-  <si>
-    <t>LD1-LD11</t>
-  </si>
-  <si>
-    <t>LED_OSRAM_LGL29K</t>
-  </si>
-  <si>
-    <t>LG L29K-G2J1-24-Z</t>
-  </si>
-  <si>
-    <t>OSRAM</t>
-  </si>
-  <si>
-    <t>LED_AVAGO_HSMR-C120</t>
-  </si>
-  <si>
-    <t>High Performance Right Angle Chip InGaN Blue LED</t>
-  </si>
-  <si>
-    <t>LD12</t>
-  </si>
-  <si>
-    <t>LED_AVAGO_HSME-C120</t>
-  </si>
-  <si>
-    <t>HSMR-C120</t>
-  </si>
-  <si>
-    <t>AVAGO TECHNOLOGIES</t>
-  </si>
-  <si>
-    <t>LED_OSRAM_LSR976</t>
-  </si>
-  <si>
-    <t>Surface Mount Super Red LED (0805 Case)</t>
-  </si>
-  <si>
-    <t>LD13</t>
-  </si>
-  <si>
-    <t>LSR976</t>
-  </si>
-  <si>
-    <t>High Performance Right Angle Chip Green LED</t>
-  </si>
-  <si>
-    <t>LD14</t>
-  </si>
-  <si>
-    <t>HSME-C120</t>
-  </si>
-  <si>
-    <t>OSC_25MHZ_IQD_LF SPXO018077</t>
-  </si>
-  <si>
-    <t>3.3V, ±50ppm, 50pF, 0..70°C, HCMOS Tri-State Surface Mount Clock Oscillator (CFPS-73 Series)</t>
-  </si>
-  <si>
-    <t>25MHz</t>
-  </si>
-  <si>
-    <t>OSC1</t>
-  </si>
-  <si>
-    <t>OSC_IQD_CFPS-73</t>
-  </si>
-  <si>
-    <t>LFSPXO018077</t>
-  </si>
-  <si>
-    <t>IQD FREQUENCY PRODUCTS</t>
-  </si>
-  <si>
-    <t>OSC_50MHZ_EPSON_SG-310SCN</t>
-  </si>
-  <si>
-    <t>3.3V ±100ppm 15pF -40..85°C Stanby Function , Surface Mount Crystal Oscillator (SG-310 Series)</t>
-  </si>
-  <si>
-    <t>50MHz</t>
-  </si>
-  <si>
-    <t>OSC2</t>
-  </si>
-  <si>
-    <t>OSC_EPSON_SG-310</t>
-  </si>
-  <si>
-    <t>SG-310 SCN 50.0000MJ</t>
-  </si>
-  <si>
-    <t>EPSON TOYOCOM</t>
-  </si>
-  <si>
-    <t>PB_TYCO_1-1825027-1</t>
-  </si>
-  <si>
-    <t>Right Angle Micro Miniature Tactile Pushbutton Switch, Round Actuator Length = 5.74mm, FSMRAJ Serie</t>
-  </si>
-  <si>
-    <t>PB1</t>
-  </si>
-  <si>
-    <t>1-1825027-1</t>
-  </si>
-  <si>
-    <t>SW_C&amp;K_HDT0001</t>
-  </si>
-  <si>
-    <t>5VDC 1mA SPST-NO Micro Mini Surface Surface Mount Detect Push-Button Switch, HDT Serie</t>
-  </si>
-  <si>
-    <t>PB2</t>
-  </si>
-  <si>
-    <t>HDT0001</t>
-  </si>
-  <si>
-    <t>C&amp;K</t>
-  </si>
-  <si>
-    <t>XTAL_12MHZ_TXC_7M-12.000MAAJ-T</t>
-  </si>
-  <si>
-    <t>±30ppm 18pF -20°C to +70°C  4 Pins, 3.2x2.5X0.8mm, SMD Sealing Crystal, 7M Series</t>
-  </si>
-  <si>
-    <t>12MHz</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>XTAL_TXC_7M</t>
-  </si>
-  <si>
-    <t>7M-12.000MAAJ-T</t>
-  </si>
-  <si>
-    <t>TXC CORPORATION</t>
-  </si>
-  <si>
-    <t>XTAL_114.285MHZ_CONNOR_CS-023</t>
-  </si>
-  <si>
-    <t>±20ppm 18pF -40°C to +85°C  4 Pins, 3.2x2.5X0.8mm, SMD Crystal Unit, CS-018 Series</t>
-  </si>
-  <si>
-    <t>114.285MHZ</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>XTAL_CONNOR_CS</t>
-  </si>
-  <si>
-    <t>CS-023-114.285M</t>
-  </si>
-  <si>
-    <t>CONNOR-WINFIELD</t>
-  </si>
-  <si>
-    <t>XTAL_8MHZ_TXC_7A-8.000MAAE-T</t>
-  </si>
-  <si>
-    <t>Tolerance: ±30ppm, Stability: ±30ppm, -20°C to +70°C, 12pF, SMD Glass Seam Sealing Crystal, 7A Series</t>
-  </si>
-  <si>
-    <t>8MHz</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>XTAL_TXC_7A</t>
-  </si>
-  <si>
-    <t>7A-8.000MAAE-T</t>
-  </si>
-  <si>
-    <t>Resistor - 1% RESC5025X65N</t>
-  </si>
-  <si>
-    <t>Thick Film Chip Resistor</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>R1,R2</t>
-  </si>
-  <si>
-    <t>R2010_1M_1%_0.5W_200PPM</t>
-  </si>
-  <si>
-    <t>Resistor - 1% RESC1005X40N</t>
-  </si>
-  <si>
-    <t>General Purpose Thick Film Chip Resistor</t>
-  </si>
-  <si>
-    <t>12k</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R0402_12K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>2k2</t>
-  </si>
-  <si>
-    <t>R5,R9,R47-R56,R279,R280</t>
-  </si>
-  <si>
-    <t>R0402_2K2_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>1A (0.05R Max DC Resistance) Zero Ohm Jumper</t>
-  </si>
-  <si>
-    <t>R11,R12,R17,R18,R20-R31,R35-R39,R57-R59,R149,R151,R152,R167,R168,R176-R180,R221-R226,R236-R239,R252,R254</t>
-  </si>
-  <si>
-    <t>R0402_0R_JUMPER</t>
-  </si>
-  <si>
-    <t>,General Purpose Thick Film Chip Resistor</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R4,R6-R8,R10,R13-R16,R19,R32-R34,R40-R46,R60,R61,R70,R71,R103,R104,R134-R138,R141-R145,R169,R170,R189,R192,R193,R212-R216,R227-R231,R235,R241,R249-R251,R253,R255,R282-R292</t>
-  </si>
-  <si>
-    <t>RESC1005X40N</t>
-  </si>
-  <si>
-    <t>R0402_10K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>R72,R105</t>
-  </si>
-  <si>
-    <t>R73,R74,R101,R102,R106,R107,R194-R198,R205-R207</t>
-  </si>
-  <si>
-    <t>R0402_240R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>R75-R99,R108-R132</t>
-  </si>
-  <si>
-    <t>4k7</t>
-  </si>
-  <si>
-    <t>R100,R133,R148,R153-R166,R171,R172,R174,R187,R209-R211,R256-R258</t>
-  </si>
-  <si>
-    <t>R0402_4K7_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>R139,R140,R146,R147,R183,R185,R217-R220,R232,R240</t>
-  </si>
-  <si>
-    <t>R0402_1K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>2k</t>
-  </si>
-  <si>
-    <t>R150</t>
-  </si>
-  <si>
-    <t>R0402_2K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>2k4</t>
-  </si>
-  <si>
-    <t>R173,R175</t>
-  </si>
-  <si>
-    <t>R0402_2K4_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>R181,R182</t>
-  </si>
-  <si>
-    <t>R0402_200R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>Reserved Footprint For a 0402 (1005) Chip Resistor</t>
-  </si>
-  <si>
-    <t>Undefined</t>
-  </si>
-  <si>
-    <t>R184,R186,R246</t>
-  </si>
-  <si>
-    <t>R0402_NO-VALUE</t>
-  </si>
-  <si>
-    <t>R188,R190,R191,R208,R259-R267,R271-R278,R281,R293-R296</t>
-  </si>
-  <si>
-    <t>R0402_100R_1%_0.1W_100PPM_50V,R0402_100R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>49R9</t>
-  </si>
-  <si>
-    <t>R62-R69,R199</t>
-  </si>
-  <si>
-    <t>R0402_49R9_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
-    <t>R200-R204</t>
-  </si>
-  <si>
-    <t>430k</t>
-  </si>
-  <si>
-    <t>R233</t>
-  </si>
-  <si>
-    <t>R0402_430K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>82k</t>
-  </si>
-  <si>
-    <t>R234</t>
-  </si>
-  <si>
-    <t>R0402_82K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>22k</t>
-  </si>
-  <si>
-    <t>R242</t>
-  </si>
-  <si>
-    <t>R0402_22K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>3k3</t>
-  </si>
-  <si>
-    <t>R243,R244</t>
-  </si>
-  <si>
-    <t>R0402_3K3_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>75k</t>
-  </si>
-  <si>
-    <t>R245</t>
-  </si>
-  <si>
-    <t>R0402_75K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>R247,R248</t>
-  </si>
-  <si>
-    <t>R0402_100K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>R268-R270</t>
-  </si>
-  <si>
-    <t>R0402_330R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>Resistor - 1% RESC3216X65N</t>
-  </si>
-  <si>
-    <t>R297,R298</t>
-  </si>
-  <si>
-    <t>R1206_1M_1%_0.25W_100PPM</t>
-  </si>
-  <si>
-    <t>R299</t>
-  </si>
-  <si>
-    <t>R1206_3R_1%_0.25W_200PPM</t>
-  </si>
-  <si>
-    <t>Resistor - 1% RESC6432X89N</t>
-  </si>
-  <si>
-    <t>Power Metal Strip® Resistor</t>
-  </si>
-  <si>
-    <t>0R02</t>
-  </si>
-  <si>
-    <t>R300,R301</t>
-  </si>
-  <si>
-    <t>WSL2512R0200FEA</t>
-  </si>
-  <si>
-    <t>Resistor RESC2012X60N</t>
-  </si>
-  <si>
-    <t>Reserved Footprint For a 0805 (2012) Chip Resistor</t>
-  </si>
-  <si>
-    <t>R302</t>
-  </si>
-  <si>
-    <t>R0805_NO-VALUE</t>
-  </si>
-  <si>
-    <t>Resistor - 0.1% RESC1005X35N</t>
-  </si>
-  <si>
-    <t>Thin Film Precision Resistor</t>
-  </si>
-  <si>
-    <t>R303</t>
-  </si>
-  <si>
-    <t>R0402_100R_0.1%_0.063W_25PPM</t>
-  </si>
-  <si>
-    <t>Resistor - 1% RESC0603X28N</t>
-  </si>
-  <si>
-    <t>R304-R306</t>
-  </si>
-  <si>
-    <t>R0201_100R_1%_0.05W_200PPM</t>
-  </si>
-  <si>
-    <t>Resistor - 1% RESC1608X55N</t>
-  </si>
-  <si>
-    <t>4k99</t>
-  </si>
-  <si>
-    <t>R307,R309</t>
-  </si>
-  <si>
-    <t>R0603_4K99_1%_0.063W_50PPM</t>
-  </si>
-  <si>
-    <t>2k49</t>
-  </si>
-  <si>
-    <t>R308</t>
-  </si>
-  <si>
-    <t>R0603_2K49_1%_0.063W_50PPM</t>
-  </si>
-  <si>
-    <t>R310,R312,R313</t>
-  </si>
-  <si>
-    <t>R0603_2R_1%_0.1W_200PPM</t>
-  </si>
-  <si>
-    <t>169k</t>
-  </si>
-  <si>
-    <t>R311</t>
-  </si>
-  <si>
-    <t>R0603_169K_1%_0.1W_100PPM</t>
-  </si>
-  <si>
-    <t>Resistor - 1% RESC5226X80N</t>
-  </si>
-  <si>
-    <t>Low Value Flat Chip Resistor</t>
-  </si>
-  <si>
-    <t>R314</t>
-  </si>
-  <si>
-    <t>LRF2010-R02FW</t>
-  </si>
-  <si>
-    <t>WELWYN COMPONENTS</t>
-  </si>
-  <si>
-    <t>Resistor RESC6331X70N</t>
-  </si>
-  <si>
-    <t>16A (0.005R Max DC Resistance) Zero Ohm Jumper</t>
-  </si>
-  <si>
-    <t>R315,R316</t>
-  </si>
-  <si>
-    <t>R2512_0R_JUMPER</t>
-  </si>
-  <si>
-    <t>SW_TYCO_1571983-4</t>
-  </si>
-  <si>
-    <t>4 Way SPST SMD DIP Switch, Latched, Contact Rating 0.025A 24VDC</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>1571983-4 or GDH04S04</t>
-  </si>
-  <si>
-    <t>TYCO</t>
-  </si>
-  <si>
-    <t>BSH103</t>
-  </si>
-  <si>
-    <t>30V 850mA N-Channel Enhancement Mode Field-Effect Transistor</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>SOT95P230X110-3N</t>
-  </si>
-  <si>
-    <t>SI4425DDY-T1-GE3</t>
-  </si>
-  <si>
-    <t>-30V -19.7A P-Channel MOSFET</t>
-  </si>
-  <si>
-    <t>T2-T4</t>
-  </si>
-  <si>
-    <t>VISHAY SILICONIX</t>
-  </si>
-  <si>
-    <t>BSS138LT1G</t>
-  </si>
-  <si>
-    <t>50V 200mA N-Channel Enhancement Mode Field-Effect Transistor</t>
-  </si>
-  <si>
-    <t>T5-T7</t>
-  </si>
-  <si>
-    <t>SOT95P240X110-3N</t>
-  </si>
-  <si>
-    <t>ON SEMICONDUCTOR</t>
-  </si>
-  <si>
-    <t>FDMS7608S</t>
-  </si>
-  <si>
-    <t>30V Dual N-Channel PowerTrench® MOSFET,MOSFET 2N-CH 30V 12A/15A 8-PQFN</t>
-  </si>
-  <si>
-    <t>T8-T11</t>
-  </si>
-  <si>
-    <t>FAIRCHILD_FDMS7608S,ST_POWERFLAT 5X6 ASYMMETRICAL</t>
-  </si>
-  <si>
-    <t>FAIRCHILD SEMICONDUCTOR</t>
-  </si>
-  <si>
-    <t>BC847BV</t>
-  </si>
-  <si>
-    <t>45V 100mA NPN General Purpose Double Transistor</t>
-  </si>
-  <si>
-    <t>T12,T13</t>
-  </si>
-  <si>
-    <t>SOTFL50P160X60-6N</t>
-  </si>
-  <si>
-    <t>PMGD280UN</t>
-  </si>
-  <si>
-    <t>20V 870mA Dual N-Channel micro TrenchMOS™ Ultra Low Level FET</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>SOT65P210X110-6N</t>
+    <t>PULSE ELECTRONICS</t>
+  </si>
+  <si>
+    <t>LED_OSRAM_LS Q976-NR-1</t>
+  </si>
+  <si>
+    <t>CHIPLED Super Red LED (0603 Case)</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>LED_OSRAM_LS Q976</t>
+  </si>
+  <si>
+    <t>LS Q976-NR-1</t>
   </si>
   <si>
     <t>SAMTEC_MTLW-104-07-L-S-250</t>
@@ -2013,20 +2268,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2062,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -2070,8 +2316,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2079,16 +2328,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2096,16 +2357,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2113,19 +2386,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2136,13 +2418,25 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2150,28 +2444,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2179,28 +2473,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2208,28 +2502,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2237,28 +2531,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2266,28 +2560,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2295,28 +2589,28 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2324,28 +2618,28 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2353,28 +2647,28 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2382,28 +2676,28 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2411,19 +2705,28 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2431,28 +2734,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2460,28 +2754,28 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2489,28 +2783,28 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2518,28 +2812,28 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2547,28 +2841,28 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2576,28 +2870,28 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2605,28 +2899,28 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2634,28 +2928,28 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2666,25 +2960,25 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2692,28 +2986,28 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2721,28 +3015,28 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2750,28 +3044,28 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2779,28 +3073,25 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2808,28 +3099,25 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H30" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" t="s">
         <v>113</v>
-      </c>
-      <c r="I30" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2837,28 +3125,25 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2866,16 +3151,25 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>126</v>
+      </c>
+      <c r="H32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2883,15 +3177,24 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2900,25 +3203,25 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I34" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2926,25 +3229,28 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H35" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="I35" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2955,22 +3261,25 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>145</v>
+      </c>
+      <c r="E36" t="s">
+        <v>146</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
-      </c>
-      <c r="H36" t="s">
-        <v>133</v>
+        <v>148</v>
+      </c>
+      <c r="H36">
+        <v>342947</v>
       </c>
       <c r="I36" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2978,28 +3287,25 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F37" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G37" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H37" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I37" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3010,22 +3316,22 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G38" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H38" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I38" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3036,22 +3342,22 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G39" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I39" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3059,25 +3365,25 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G40" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H40" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I40" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3085,25 +3391,25 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G41" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="H41" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I41" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3114,22 +3420,19 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G42" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H42" t="s">
-        <v>165</v>
-      </c>
-      <c r="I42" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3137,25 +3440,25 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" t="s">
         <v>169</v>
-      </c>
-      <c r="D43" t="s">
-        <v>170</v>
-      </c>
-      <c r="F43" t="s">
-        <v>171</v>
-      </c>
-      <c r="G43" t="s">
-        <v>172</v>
-      </c>
-      <c r="H43" t="s">
-        <v>169</v>
-      </c>
-      <c r="I43" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3163,25 +3466,25 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F44" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G44" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H44" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="I44" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3192,13 +3495,13 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F45" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G45" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3206,16 +3509,25 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>189</v>
+      </c>
+      <c r="D46" t="s">
+        <v>190</v>
       </c>
       <c r="F46" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G46" t="s">
-        <v>183</v>
+        <v>192</v>
+      </c>
+      <c r="H46" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3223,16 +3535,25 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>193</v>
+      </c>
+      <c r="D47" t="s">
+        <v>194</v>
       </c>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>196</v>
+      </c>
+      <c r="H47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3240,25 +3561,25 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F48" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G48" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H48" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="I48" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3266,25 +3587,25 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F49" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G49" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H49" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="I49" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3295,22 +3616,22 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F50" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G50" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H50" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="I50" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3318,25 +3639,25 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F51" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G51" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="H51" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="I51" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3344,25 +3665,25 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F52" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G52" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H52" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I52" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3370,25 +3691,25 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F53" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G53" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H53" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I53" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3396,25 +3717,25 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D54" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F54" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="G54" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="H54" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="I54" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3425,22 +3746,22 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F55" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="G55" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="H55" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="I55" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3451,22 +3772,22 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F56" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G56" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H56" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="I56" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3474,25 +3795,25 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F57" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G57" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="H57" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="I57" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3500,25 +3821,25 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F58" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G58" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H58" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="I58" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3526,25 +3847,25 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D59" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F59" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G59" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H59" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="I59" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3555,22 +3876,22 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F60" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G60" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="H60" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="I60" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3581,22 +3902,22 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D61" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F61" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G61" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="H61" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="I61" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3607,13 +3928,22 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>260</v>
+      </c>
+      <c r="D62" t="s">
+        <v>261</v>
       </c>
       <c r="F62" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G62" t="s">
-        <v>250</v>
+        <v>263</v>
+      </c>
+      <c r="H62" t="s">
+        <v>260</v>
+      </c>
+      <c r="I62" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3624,19 +3954,22 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F63" t="s">
-        <v>254</v>
+        <v>266</v>
+      </c>
+      <c r="G63" t="s">
+        <v>267</v>
       </c>
       <c r="H63" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="I63" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3647,22 +3980,22 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D64" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F64" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G64" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="H64" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="I64" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3673,22 +4006,22 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D65" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F65" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G65" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="H65" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="I65" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3699,22 +4032,22 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="D66" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F66" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="G66" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H66" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I66" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3725,22 +4058,22 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D67" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F67" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="G67" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="H67" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I67" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3751,22 +4084,22 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D68" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F68" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="G68" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H68" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="I68" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3774,16 +4107,25 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>279</v>
+        <v>292</v>
+      </c>
+      <c r="D69" t="s">
+        <v>293</v>
       </c>
       <c r="F69" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="G69" t="s">
-        <v>279</v>
+        <v>292</v>
+      </c>
+      <c r="H69" t="s">
+        <v>295</v>
+      </c>
+      <c r="I69" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3791,25 +4133,22 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D70" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F70" t="s">
-        <v>283</v>
-      </c>
-      <c r="G70" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="H70" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="I70" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3820,22 +4159,22 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="D71" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F71" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G71" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="H71" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="I71" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3846,22 +4185,22 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D72" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F72" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="G72" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H72" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="I72" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3869,19 +4208,25 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>294</v>
-      </c>
-      <c r="E73" t="s">
-        <v>295</v>
+        <v>310</v>
+      </c>
+      <c r="D73" t="s">
+        <v>311</v>
       </c>
       <c r="F73" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G73" t="s">
-        <v>297</v>
+        <v>310</v>
+      </c>
+      <c r="H73" t="s">
+        <v>313</v>
+      </c>
+      <c r="I73" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3889,28 +4234,25 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="D74" t="s">
-        <v>299</v>
-      </c>
-      <c r="E74" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="F74" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="G74" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="H74" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="I74" t="s">
-        <v>303</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3918,28 +4260,25 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D75" t="s">
-        <v>299</v>
-      </c>
-      <c r="E75" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="F75" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="G75" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="H75" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="I75" t="s">
-        <v>303</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3947,28 +4286,25 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D76" t="s">
-        <v>299</v>
-      </c>
-      <c r="E76" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="F76" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="G76" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="H76" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="I76" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3976,28 +4312,25 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="D77" t="s">
-        <v>313</v>
-      </c>
-      <c r="E77" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="F77" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="G77" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="H77" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="I77" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -4005,28 +4338,25 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D78" t="s">
-        <v>313</v>
-      </c>
-      <c r="E78" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F78" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="G78" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="H78" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="I78" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4034,28 +4364,25 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="D79" t="s">
-        <v>325</v>
-      </c>
-      <c r="E79" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F79" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H79" t="s">
-        <v>329</v>
+        <v>336</v>
+      </c>
+      <c r="H79">
+        <v>132203</v>
       </c>
       <c r="I79" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -4063,28 +4390,25 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D80" t="s">
-        <v>332</v>
-      </c>
-      <c r="E80" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F80" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G80" t="s">
-        <v>335</v>
-      </c>
-      <c r="H80">
-        <v>742792040</v>
+        <v>340</v>
+      </c>
+      <c r="H80" t="s">
+        <v>343</v>
       </c>
       <c r="I80" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -4092,28 +4416,19 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>337</v>
-      </c>
-      <c r="D81" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E81" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F81" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G81" t="s">
-        <v>337</v>
-      </c>
-      <c r="H81" t="s">
-        <v>341</v>
-      </c>
-      <c r="I81" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4121,28 +4436,28 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D82" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E82" t="s">
         <v>345</v>
       </c>
       <c r="F82" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G82" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="H82" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="I82" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4150,22 +4465,25 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D83" t="s">
         <v>349</v>
       </c>
+      <c r="E83" t="s">
+        <v>345</v>
+      </c>
       <c r="F83" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G83" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H83" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="I83" t="s">
         <v>353</v>
@@ -4176,25 +4494,28 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D84" t="s">
-        <v>355</v>
+        <v>359</v>
+      </c>
+      <c r="E84" t="s">
+        <v>360</v>
       </c>
       <c r="F84" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G84" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H84" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="I84" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4202,22 +4523,25 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D85" t="s">
-        <v>361</v>
+        <v>349</v>
+      </c>
+      <c r="E85" t="s">
+        <v>365</v>
       </c>
       <c r="F85" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G85" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H85" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="I85" t="s">
         <v>353</v>
@@ -4228,25 +4552,28 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D86" t="s">
-        <v>364</v>
+        <v>369</v>
+      </c>
+      <c r="E86" t="s">
+        <v>370</v>
       </c>
       <c r="F86" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G86" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="H86" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="I86" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4257,25 +4584,25 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D87" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E87" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F87" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="G87" t="s">
-        <v>371</v>
-      </c>
-      <c r="H87" t="s">
-        <v>372</v>
+        <v>379</v>
+      </c>
+      <c r="H87">
+        <v>742792040</v>
       </c>
       <c r="I87" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4283,28 +4610,28 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D88" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E88" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F88" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="G88" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="H88" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="I88" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -4315,22 +4642,25 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D89" t="s">
-        <v>382</v>
+        <v>389</v>
+      </c>
+      <c r="E89" t="s">
+        <v>390</v>
       </c>
       <c r="F89" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G89" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="H89" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="I89" t="s">
-        <v>274</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4338,25 +4668,25 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D90" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="F90" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="G90" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="H90" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="I90" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4364,28 +4694,25 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="D91" t="s">
-        <v>391</v>
-      </c>
-      <c r="E91" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="F91" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="G91" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="H91" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="I91" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4396,25 +4723,22 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D92" t="s">
-        <v>398</v>
-      </c>
-      <c r="E92" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="F92" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G92" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H92" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="I92" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4422,28 +4746,25 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D93" t="s">
+        <v>411</v>
+      </c>
+      <c r="F93" t="s">
+        <v>412</v>
+      </c>
+      <c r="G93" t="s">
+        <v>410</v>
+      </c>
+      <c r="H93" t="s">
+        <v>413</v>
+      </c>
+      <c r="I93" t="s">
         <v>405</v>
-      </c>
-      <c r="E93" t="s">
-        <v>406</v>
-      </c>
-      <c r="F93" t="s">
-        <v>407</v>
-      </c>
-      <c r="G93" t="s">
-        <v>408</v>
-      </c>
-      <c r="H93" t="s">
-        <v>409</v>
-      </c>
-      <c r="I93" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4451,25 +4772,28 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D94" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E94" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F94" t="s">
-        <v>413</v>
+        <v>417</v>
+      </c>
+      <c r="G94" t="s">
+        <v>418</v>
       </c>
       <c r="H94" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="I94" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4480,22 +4804,25 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D95" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E95" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F95" t="s">
-        <v>418</v>
+        <v>424</v>
+      </c>
+      <c r="G95" t="s">
+        <v>425</v>
       </c>
       <c r="H95" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="I95" t="s">
-        <v>31</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4503,25 +4830,28 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="D96" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="E96" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F96" t="s">
-        <v>421</v>
+        <v>431</v>
+      </c>
+      <c r="G96" t="s">
+        <v>432</v>
       </c>
       <c r="H96" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="I96" t="s">
-        <v>31</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4529,25 +4859,28 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="D97" t="s">
-        <v>423</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
+        <v>429</v>
+      </c>
+      <c r="E97" t="s">
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>424</v>
+        <v>435</v>
+      </c>
+      <c r="G97" t="s">
+        <v>432</v>
       </c>
       <c r="H97" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="I97" t="s">
-        <v>31</v>
+        <v>434</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4555,28 +4888,25 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="D98" t="s">
-        <v>426</v>
-      </c>
-      <c r="E98" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="F98" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="G98" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H98" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="I98" t="s">
-        <v>31</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4584,16 +4914,25 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>415</v>
-      </c>
-      <c r="E99">
-        <v>10</v>
+        <v>441</v>
+      </c>
+      <c r="D99" t="s">
+        <v>442</v>
       </c>
       <c r="F99" t="s">
-        <v>431</v>
+        <v>443</v>
+      </c>
+      <c r="G99" t="s">
+        <v>441</v>
+      </c>
+      <c r="H99" t="s">
+        <v>444</v>
+      </c>
+      <c r="I99" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4601,25 +4940,28 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="D100" t="s">
-        <v>426</v>
-      </c>
-      <c r="E100">
-        <v>240</v>
+        <v>447</v>
+      </c>
+      <c r="E100" t="s">
+        <v>448</v>
       </c>
       <c r="F100" t="s">
-        <v>432</v>
+        <v>449</v>
+      </c>
+      <c r="G100" t="s">
+        <v>450</v>
       </c>
       <c r="H100" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="I100" t="s">
-        <v>31</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4627,16 +4969,28 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>415</v>
-      </c>
-      <c r="E101">
-        <v>43</v>
+        <v>453</v>
+      </c>
+      <c r="D101" t="s">
+        <v>454</v>
+      </c>
+      <c r="E101" t="s">
+        <v>455</v>
       </c>
       <c r="F101" t="s">
-        <v>434</v>
+        <v>456</v>
+      </c>
+      <c r="G101" t="s">
+        <v>457</v>
+      </c>
+      <c r="H101" t="s">
+        <v>458</v>
+      </c>
+      <c r="I101" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4644,25 +4998,28 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="D102" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="E102" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="F102" t="s">
-        <v>436</v>
+        <v>463</v>
+      </c>
+      <c r="G102" t="s">
+        <v>464</v>
       </c>
       <c r="H102" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="I102" t="s">
-        <v>31</v>
+        <v>452</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4670,25 +5027,25 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="D103" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="E103" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="F103" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="H103" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="I103" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4699,22 +5056,22 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="D104" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="E104" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="F104" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="H104" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="I104" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4722,25 +5079,25 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="D105" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="E105" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="F105" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="H105" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="I105" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4748,25 +5105,25 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="C106" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="D106" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="E106">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="H106" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="I106" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4774,25 +5131,25 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C107" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="D107" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="E107" t="s">
-        <v>450</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="H107" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="I107" t="s">
-        <v>450</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4800,25 +5157,28 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="C108" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="D108" t="s">
-        <v>416</v>
-      </c>
-      <c r="E108">
-        <v>100</v>
+        <v>485</v>
+      </c>
+      <c r="E108" t="s">
+        <v>486</v>
       </c>
       <c r="F108" t="s">
-        <v>453</v>
+        <v>487</v>
+      </c>
+      <c r="G108" t="s">
+        <v>488</v>
       </c>
       <c r="H108" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="I108" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4826,28 +5186,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>415</v>
-      </c>
-      <c r="D109" t="s">
-        <v>416</v>
-      </c>
-      <c r="E109" t="s">
-        <v>455</v>
+        <v>471</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>456</v>
-      </c>
-      <c r="G109" t="s">
-        <v>429</v>
-      </c>
-      <c r="H109" t="s">
-        <v>457</v>
-      </c>
-      <c r="I109" t="s">
-        <v>31</v>
+        <v>490</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4855,25 +5203,25 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="D110" t="s">
-        <v>423</v>
-      </c>
-      <c r="E110" t="s">
-        <v>458</v>
+        <v>485</v>
+      </c>
+      <c r="E110">
+        <v>240</v>
       </c>
       <c r="F110" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="H110" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
       <c r="I110" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4881,25 +5229,16 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>415</v>
-      </c>
-      <c r="D111" t="s">
-        <v>416</v>
-      </c>
-      <c r="E111" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="E111">
+        <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>461</v>
-      </c>
-      <c r="H111" t="s">
-        <v>462</v>
-      </c>
-      <c r="I111" t="s">
-        <v>31</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4907,25 +5246,25 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="D112" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="E112" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="F112" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="H112" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="I112" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4933,25 +5272,25 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="D113" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="E113" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="F113" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="H113" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="I113" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4959,25 +5298,25 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="D114" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="E114" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="F114" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="H114" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="I114" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4985,25 +5324,25 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="D115" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="E115" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="F115" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="H115" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="I115" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5011,25 +5350,25 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="D116" t="s">
-        <v>416</v>
-      </c>
-      <c r="E116" t="s">
-        <v>475</v>
+        <v>472</v>
+      </c>
+      <c r="E116">
+        <v>200</v>
       </c>
       <c r="F116" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="H116" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="I116" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5040,22 +5379,22 @@
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="D117" t="s">
-        <v>416</v>
-      </c>
-      <c r="E117">
-        <v>330</v>
+        <v>508</v>
+      </c>
+      <c r="E117" t="s">
+        <v>509</v>
       </c>
       <c r="F117" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="H117" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="I117" t="s">
-        <v>31</v>
+        <v>509</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5063,25 +5402,25 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D118" t="s">
-        <v>416</v>
-      </c>
-      <c r="E118" t="s">
-        <v>412</v>
+        <v>472</v>
+      </c>
+      <c r="E118">
+        <v>100</v>
       </c>
       <c r="F118" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="H118" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="I118" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5089,25 +5428,28 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D119" t="s">
-        <v>416</v>
-      </c>
-      <c r="E119">
-        <v>3</v>
+        <v>472</v>
+      </c>
+      <c r="E119" t="s">
+        <v>514</v>
       </c>
       <c r="F119" t="s">
-        <v>483</v>
+        <v>515</v>
+      </c>
+      <c r="G119" t="s">
+        <v>488</v>
       </c>
       <c r="H119" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="I119" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5115,25 +5457,25 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D120" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="E120" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="F120" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="H120" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="I120" t="s">
-        <v>318</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5141,25 +5483,25 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="D121" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="E121" t="s">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="F121" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="H121" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="I121" t="s">
-        <v>450</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5170,22 +5512,22 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D122" t="s">
-        <v>495</v>
-      </c>
-      <c r="E122">
-        <v>100</v>
+        <v>472</v>
+      </c>
+      <c r="E122" t="s">
+        <v>523</v>
       </c>
       <c r="F122" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="H122" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="I122" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -5193,25 +5535,25 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="D123" t="s">
-        <v>411</v>
-      </c>
-      <c r="E123">
-        <v>100</v>
+        <v>472</v>
+      </c>
+      <c r="E123" t="s">
+        <v>526</v>
       </c>
       <c r="F123" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="H123" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="I123" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -5219,25 +5561,25 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D124" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="E124" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="F124" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="H124" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="I124" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5245,25 +5587,25 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D125" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="E125" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="F125" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="H125" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="I125" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5271,25 +5613,25 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D126" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>330</v>
       </c>
       <c r="F126" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="H126" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="I126" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5297,25 +5639,25 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="D127" t="s">
-        <v>416</v>
+        <v>538</v>
       </c>
       <c r="E127" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="F127" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="H127" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="I127" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5326,22 +5668,22 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="D128" t="s">
-        <v>514</v>
-      </c>
-      <c r="E128" t="s">
-        <v>487</v>
+        <v>472</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
       </c>
       <c r="F128" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="H128" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="I128" t="s">
-        <v>517</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -5352,22 +5694,22 @@
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="D129" t="s">
-        <v>519</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
+        <v>546</v>
+      </c>
+      <c r="E129" t="s">
+        <v>547</v>
       </c>
       <c r="F129" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="H129" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="I129" t="s">
-        <v>31</v>
+        <v>550</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5378,22 +5720,22 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="D130" t="s">
-        <v>523</v>
+        <v>552</v>
+      </c>
+      <c r="E130" t="s">
+        <v>509</v>
       </c>
       <c r="F130" t="s">
-        <v>524</v>
-      </c>
-      <c r="G130" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="H130" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="I130" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5404,22 +5746,22 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="D131" t="s">
-        <v>528</v>
+        <v>556</v>
+      </c>
+      <c r="E131">
+        <v>100</v>
       </c>
       <c r="F131" t="s">
-        <v>529</v>
-      </c>
-      <c r="G131" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="H131" t="s">
-        <v>527</v>
+        <v>558</v>
       </c>
       <c r="I131" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5430,22 +5772,22 @@
         <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="D132" t="s">
-        <v>532</v>
+        <v>467</v>
+      </c>
+      <c r="E132">
+        <v>100</v>
       </c>
       <c r="F132" t="s">
-        <v>533</v>
-      </c>
-      <c r="G132" t="s">
-        <v>153</v>
+        <v>560</v>
       </c>
       <c r="H132" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="I132" t="s">
-        <v>534</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5453,25 +5795,25 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="D133" t="s">
-        <v>536</v>
+        <v>472</v>
+      </c>
+      <c r="E133" t="s">
+        <v>563</v>
       </c>
       <c r="F133" t="s">
-        <v>537</v>
-      </c>
-      <c r="G133" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="H133" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="I133" t="s">
-        <v>539</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5479,25 +5821,25 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="D134" t="s">
-        <v>541</v>
+        <v>472</v>
+      </c>
+      <c r="E134" t="s">
+        <v>566</v>
       </c>
       <c r="F134" t="s">
-        <v>542</v>
-      </c>
-      <c r="G134" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="H134" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="I134" t="s">
-        <v>544</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5505,25 +5847,25 @@
         <v>134</v>
       </c>
       <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>562</v>
+      </c>
+      <c r="D135" t="s">
+        <v>472</v>
+      </c>
+      <c r="E135">
         <v>2</v>
       </c>
-      <c r="C135" t="s">
-        <v>545</v>
-      </c>
-      <c r="D135" t="s">
-        <v>546</v>
-      </c>
       <c r="F135" t="s">
-        <v>547</v>
-      </c>
-      <c r="G135" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="H135" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="I135" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5534,22 +5876,22 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="D136" t="s">
-        <v>550</v>
+        <v>472</v>
+      </c>
+      <c r="E136" t="s">
+        <v>571</v>
       </c>
       <c r="F136" t="s">
-        <v>551</v>
-      </c>
-      <c r="G136" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="H136" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="I136" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5560,22 +5902,409 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="D137" t="s">
-        <v>554</v>
+        <v>575</v>
+      </c>
+      <c r="E137" t="s">
+        <v>547</v>
       </c>
       <c r="F137" t="s">
-        <v>555</v>
-      </c>
-      <c r="G137" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="H137" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="I137" t="s">
-        <v>265</v>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>579</v>
+      </c>
+      <c r="D138" t="s">
+        <v>580</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138" t="s">
+        <v>581</v>
+      </c>
+      <c r="H138" t="s">
+        <v>582</v>
+      </c>
+      <c r="I138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>471</v>
+      </c>
+      <c r="D139" t="s">
+        <v>472</v>
+      </c>
+      <c r="E139" t="s">
+        <v>583</v>
+      </c>
+      <c r="F139" t="s">
+        <v>584</v>
+      </c>
+      <c r="H139" t="s">
+        <v>585</v>
+      </c>
+      <c r="I139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>471</v>
+      </c>
+      <c r="D140" t="s">
+        <v>472</v>
+      </c>
+      <c r="E140" t="s">
+        <v>586</v>
+      </c>
+      <c r="F140" t="s">
+        <v>587</v>
+      </c>
+      <c r="H140" t="s">
+        <v>588</v>
+      </c>
+      <c r="I140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>589</v>
+      </c>
+      <c r="D141" t="s">
+        <v>590</v>
+      </c>
+      <c r="F141" t="s">
+        <v>591</v>
+      </c>
+      <c r="G141" t="s">
+        <v>589</v>
+      </c>
+      <c r="H141" t="s">
+        <v>592</v>
+      </c>
+      <c r="I141" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>594</v>
+      </c>
+      <c r="D142" t="s">
+        <v>595</v>
+      </c>
+      <c r="F142" t="s">
+        <v>596</v>
+      </c>
+      <c r="G142" t="s">
+        <v>597</v>
+      </c>
+      <c r="H142" t="s">
+        <v>594</v>
+      </c>
+      <c r="I142" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>598</v>
+      </c>
+      <c r="D143" t="s">
+        <v>599</v>
+      </c>
+      <c r="F143" t="s">
+        <v>600</v>
+      </c>
+      <c r="G143" t="s">
+        <v>158</v>
+      </c>
+      <c r="H143" t="s">
+        <v>598</v>
+      </c>
+      <c r="I143" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>602</v>
+      </c>
+      <c r="D144" t="s">
+        <v>603</v>
+      </c>
+      <c r="F144" t="s">
+        <v>604</v>
+      </c>
+      <c r="G144" t="s">
+        <v>605</v>
+      </c>
+      <c r="H144" t="s">
+        <v>602</v>
+      </c>
+      <c r="I144" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>606</v>
+      </c>
+      <c r="D145" t="s">
+        <v>607</v>
+      </c>
+      <c r="F145" t="s">
+        <v>608</v>
+      </c>
+      <c r="G145" t="s">
+        <v>609</v>
+      </c>
+      <c r="H145" t="s">
+        <v>606</v>
+      </c>
+      <c r="I145" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>611</v>
+      </c>
+      <c r="D146" t="s">
+        <v>612</v>
+      </c>
+      <c r="F146" t="s">
+        <v>613</v>
+      </c>
+      <c r="G146" t="s">
+        <v>614</v>
+      </c>
+      <c r="H146" t="s">
+        <v>611</v>
+      </c>
+      <c r="I146" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>615</v>
+      </c>
+      <c r="D147" t="s">
+        <v>616</v>
+      </c>
+      <c r="F147" t="s">
+        <v>617</v>
+      </c>
+      <c r="G147" t="s">
+        <v>614</v>
+      </c>
+      <c r="H147" t="s">
+        <v>615</v>
+      </c>
+      <c r="I147" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>618</v>
+      </c>
+      <c r="D148" t="s">
+        <v>619</v>
+      </c>
+      <c r="F148" t="s">
+        <v>620</v>
+      </c>
+      <c r="G148" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>622</v>
+      </c>
+      <c r="D149" t="s">
+        <v>623</v>
+      </c>
+      <c r="F149" t="s">
+        <v>624</v>
+      </c>
+      <c r="G149" t="s">
+        <v>622</v>
+      </c>
+      <c r="H149" t="s">
+        <v>625</v>
+      </c>
+      <c r="I149" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>626</v>
+      </c>
+      <c r="D150" t="s">
+        <v>627</v>
+      </c>
+      <c r="E150" t="s">
+        <v>628</v>
+      </c>
+      <c r="F150" t="s">
+        <v>629</v>
+      </c>
+      <c r="G150" t="s">
+        <v>630</v>
+      </c>
+      <c r="H150" t="s">
+        <v>631</v>
+      </c>
+      <c r="I150" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>633</v>
+      </c>
+      <c r="D151" t="s">
+        <v>634</v>
+      </c>
+      <c r="F151" t="s">
+        <v>635</v>
+      </c>
+      <c r="G151" t="s">
+        <v>636</v>
+      </c>
+      <c r="H151" t="s">
+        <v>637</v>
+      </c>
+      <c r="I151" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>638</v>
+      </c>
+      <c r="D152" t="s">
+        <v>639</v>
+      </c>
+      <c r="F152" t="s">
+        <v>640</v>
+      </c>
+      <c r="G152" t="s">
+        <v>638</v>
+      </c>
+      <c r="H152" t="s">
+        <v>641</v>
+      </c>
+      <c r="I152" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
